--- a/doc/jspmvc요구사항명세_정재훈.xlsx
+++ b/doc/jspmvc요구사항명세_정재훈.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keept\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8555C12D-DD8B-4215-A909-0D6B7BB83CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6080B1E-F016-45D3-91AB-E1609792254A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-8295" windowWidth="29040" windowHeight="15840" xr2:uid="{84B08898-6833-BE4D-98BE-BB116F5F8986}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>client(갑)이 요렇게 만들어 주세요 하는 정식 문서 중 제안요청서(RFP) 를 보고 만드는 요구사항 명세 (을이 만드는 문서)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글의 내용은 페이징 처리가 되어 1페이지당 N의 글을 보여줄 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>페이지당 글의 개수는 글 목록 보기 화면에서 엔드유저가 입력하는 숫자에 따라 개수를 달리하여 보여줄 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +141,22 @@
   </si>
   <si>
     <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능적 요구사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비기능적 요구사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차이점을 가르는 기준 : EndUser눈에 보이는 기능이냐 아니냐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글의 내용은 페이징 처리가 되어 1페이지당 N개의 글을 보여줄 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,12 +181,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -191,8 +215,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -509,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F7B80B-8D94-A84B-A7AC-95B1AEA015A8}">
-  <dimension ref="C2:D34"/>
+  <dimension ref="C2:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -520,106 +550,145 @@
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="M7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.3">
@@ -627,12 +696,12 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.3">
